--- a/test.xlsx
+++ b/test.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c456221a7c547d1/Bureau/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC6F2FAB-0EBD-4A84-943F-A2CDD67F1D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{EDE290F8-AD67-4D52-837F-C19777820A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84C435ED-6589-44AE-9AAB-1550BFE5E83A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="9432" xr2:uid="{4906C146-255D-4E73-A451-525482FD125B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4906C146-255D-4E73-A451-525482FD125B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,26 +24,133 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+  <si>
+    <t>Fonctionalité</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>Ajouter un admis</t>
+  </si>
+  <si>
+    <t>Modifier</t>
+  </si>
+  <si>
+    <t>Bloquer</t>
+  </si>
+  <si>
+    <t>Débloquer</t>
+  </si>
+  <si>
+    <t>Supprimer</t>
+  </si>
+  <si>
+    <t>Gestion des administrateurs</t>
+  </si>
+  <si>
+    <t>Suivre les visisteurs</t>
+  </si>
+  <si>
+    <t>Envoyer newsletters</t>
+  </si>
+  <si>
+    <t>Gestion des services</t>
+  </si>
+  <si>
+    <t>Ajouter un service</t>
+  </si>
+  <si>
+    <t>Modifier un service</t>
+  </si>
+  <si>
+    <t>Supprimer un service</t>
+  </si>
+  <si>
+    <t>Gestion des visiteurs</t>
+  </si>
+  <si>
+    <t>Afficher les services</t>
+  </si>
+  <si>
+    <t>Gestion des navigations</t>
+  </si>
+  <si>
+    <t>Contacter</t>
+  </si>
+  <si>
+    <t>Partager</t>
+  </si>
+  <si>
+    <t>Date et heures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habibatou </t>
+  </si>
+  <si>
+    <t>Mamoudou</t>
+  </si>
+  <si>
+    <t>Atoumane</t>
+  </si>
+  <si>
+    <t>Fatoumata</t>
+  </si>
+  <si>
+    <t>Fatou</t>
+  </si>
+  <si>
+    <t>Habibatou</t>
+  </si>
+  <si>
+    <t>Rcceuillir avis</t>
+  </si>
+  <si>
+    <t>Abibatou</t>
+  </si>
+  <si>
+    <t>Remarque &amp;Observation</t>
+  </si>
+  <si>
+    <t>Personne &amp; ressources</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Corbel"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -51,12 +158,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -75,110 +250,58 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="À bandes">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="À bandes">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="2C2C2C"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="099BDD"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="F2F2F2"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="A5D028"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="08CC78"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="F24099"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="828288"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F56617"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="005DBA"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="6C606A"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="À bandes">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Corbel" panose="020B0503020204020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Arab" typeface="Tahoma"/>
+        <a:font script="Hebr" typeface="Gisha"/>
+        <a:font script="Thai" typeface="DilleniaUPC"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -199,29 +322,47 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Viet" typeface="Tahoma"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Corbel" panose="020B0503020204020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Tahoma"/>
+        <a:font script="Hebr" typeface="Gisha"/>
+        <a:font script="Thai" typeface="DilleniaUPC"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Verdana"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="À bandes">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -230,23 +371,23 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="65000"/>
+                <a:satMod val="120000"/>
+                <a:lumMod val="107000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="70000"/>
+                <a:satMod val="124000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="85000"/>
+                <a:satMod val="120000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -256,23 +397,24 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="85000"/>
+                <a:shade val="98000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
+                <a:shade val="85000"/>
+                <a:satMod val="105000"/>
                 <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
+                <a:shade val="60000"/>
                 <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -280,26 +422,23 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -307,11 +446,17 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="15875" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="68000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="88900" dist="27940" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -323,34 +468,31 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:duotone>
+              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:shade val="91000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:duotone>
+          </a:blip>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="100000"/>
+                <a:shade val="0"/>
+                <a:satMod val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -363,7 +505,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Banded" id="{98DFF888-2449-4D28-977C-6306C017633E}" vid="{9792607F-9579-4224-82FF-9C88C3E1E53D}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -371,14 +513,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A76D15-6E99-437A-A682-51C0FDADA406}">
-  <dimension ref="A1"/>
+  <dimension ref="C3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
+    <col min="8" max="8" width="22.25" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>44352</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="6"/>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>44352</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="6"/>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>44354</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="6"/>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>44355</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>44355</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4">
+        <v>44359</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>44360</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>44362</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4">
+        <v>44363</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4">
+        <v>44364</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4">
+        <v>44365</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="7"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="4">
+        <v>44367</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4">
+        <v>44373</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="4">
+        <v>44374</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C10:C12"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F21" xr:uid="{08C570BB-851B-4F5B-8491-647256692998}">
+      <formula1>"ok"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>